--- a/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
+++ b/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\☆進行中の会議\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E2E0C3-3F31-4B2A-B040-FBCF001FB097}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B8DEA9-E87D-411B-B3EE-A8F5E619F575}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{B0043230-49CF-4E90-BC00-538200B50BC8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{B0043230-49CF-4E90-BC00-538200B50BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -239,10 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>heat_transfer_coefficient_human_body.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Weather.py</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -320,6 +315,10 @@
   </si>
   <si>
     <t>set_point_temperature.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apdx3_heat_transfer_coefficient_human_body.py</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -703,17 +702,17 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +723,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -735,7 +734,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -743,10 +742,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -754,10 +753,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -765,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -776,10 +775,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -787,10 +786,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -798,10 +797,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -809,10 +808,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -820,10 +819,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -831,10 +830,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -842,10 +841,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -853,10 +852,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -864,10 +863,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -875,10 +874,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -886,10 +885,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -897,10 +896,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -908,10 +907,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -919,10 +918,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -930,10 +929,10 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -941,10 +940,10 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -952,10 +951,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -963,10 +962,10 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -974,10 +973,10 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -985,10 +984,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -996,10 +995,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1007,10 +1006,10 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1018,10 +1017,10 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1029,10 +1028,10 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1040,10 +1039,10 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1051,10 +1050,10 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1062,10 +1061,10 @@
         <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1073,12 +1072,12 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
+++ b/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\☆進行中の会議\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B8DEA9-E87D-411B-B3EE-A8F5E619F575}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3BA97A-8540-4374-A6BB-E391A654F308}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{B0043230-49CF-4E90-BC00-538200B50BC8}"/>
   </bookViews>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SolarPosision.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>direction_cos_incident_angle.py</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -319,6 +315,10 @@
   </si>
   <si>
     <t>apdx3_heat_transfer_coefficient_human_body.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apdx5_solar_position.py</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,7 +702,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.65">
@@ -764,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.65">
@@ -775,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.65">
@@ -786,7 +786,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.65">
@@ -797,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.65">
@@ -808,7 +808,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.65">
@@ -819,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.65">
@@ -830,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.65">
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.65">
@@ -852,7 +852,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.65">
@@ -863,7 +863,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.65">
@@ -874,7 +874,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.65">
@@ -885,7 +885,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.65">
@@ -896,7 +896,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.65">
@@ -907,7 +907,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.65">
@@ -918,7 +918,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.65">
@@ -929,7 +929,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.65">
@@ -940,7 +940,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.65">
@@ -951,7 +951,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.65">
@@ -962,7 +962,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.65">
@@ -973,7 +973,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.65">
@@ -984,7 +984,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.65">
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.65">
@@ -1006,7 +1006,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.65">
@@ -1017,7 +1017,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.65">
@@ -1028,7 +1028,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.65">
@@ -1039,7 +1039,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.65">
@@ -1050,7 +1050,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.65">
@@ -1061,7 +1061,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.65">
@@ -1072,7 +1072,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
+++ b/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\☆進行中の会議\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3BA97A-8540-4374-A6BB-E391A654F308}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC7201A-9598-438D-9EBF-E257642F3C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{B0043230-49CF-4E90-BC00-538200B50BC8}"/>
   </bookViews>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>direction_cos_incident_angle.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Exsrf.py</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -319,6 +315,10 @@
   </si>
   <si>
     <t>apdx5_solar_position.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apdx6_direction_cos_incident_angle.py</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,7 +702,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.65">
@@ -764,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.65">
@@ -775,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.65">
@@ -786,7 +786,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.65">
@@ -797,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.65">
@@ -808,7 +808,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.65">
@@ -819,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.65">
@@ -830,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.65">
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.65">
@@ -852,7 +852,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.65">
@@ -863,7 +863,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.65">
@@ -874,7 +874,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.65">
@@ -885,7 +885,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.65">
@@ -896,7 +896,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.65">
@@ -907,7 +907,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.65">
@@ -918,7 +918,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.65">
@@ -929,7 +929,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.65">
@@ -940,7 +940,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.65">
@@ -951,7 +951,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.65">
@@ -962,7 +962,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.65">
@@ -973,7 +973,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.65">
@@ -984,7 +984,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.65">
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.65">
@@ -1006,7 +1006,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.65">
@@ -1017,7 +1017,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.65">
@@ -1028,7 +1028,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.65">
@@ -1039,7 +1039,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.65">
@@ -1050,7 +1050,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.65">
@@ -1061,7 +1061,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.65">
@@ -1072,7 +1072,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
+++ b/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\☆進行中の会議\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC7201A-9598-438D-9EBF-E257642F3C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADACEF10-263C-49E2-B935-38D9D8E3781A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{B0043230-49CF-4E90-BC00-538200B50BC8}"/>
   </bookViews>
@@ -258,10 +258,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>oblique_incidence_characteristics.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>opening_transmission_solar_radiation.py</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -319,6 +315,10 @@
   </si>
   <si>
     <t>apdx6_direction_cos_incident_angle.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apdx10_oblique_incidence_characteristics.py</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,7 +702,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.65">
@@ -764,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.65">
@@ -775,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.65">
@@ -819,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.65">
@@ -830,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.65">
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.65">
@@ -852,7 +852,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.65">
@@ -863,7 +863,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.65">
@@ -874,7 +874,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.65">
@@ -885,7 +885,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.65">
@@ -896,7 +896,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.65">
@@ -907,7 +907,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.65">
@@ -929,7 +929,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.65">
@@ -940,7 +940,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.65">
@@ -951,7 +951,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.65">
@@ -962,7 +962,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.65">
@@ -973,7 +973,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.65">
@@ -984,7 +984,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.65">
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.65">
@@ -1006,7 +1006,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.65">
@@ -1017,7 +1017,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.65">
@@ -1028,7 +1028,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.65">
@@ -1039,7 +1039,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.65">
@@ -1050,7 +1050,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.65">
@@ -1061,7 +1061,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.65">
@@ -1072,7 +1072,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
+++ b/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\☆進行中の会議\e7_inputdataconvert\heatload_calc\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\kiseisokue7\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADACEF10-263C-49E2-B935-38D9D8E3781A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F5EB0-DD4D-4B06-A2AD-EA670248B455}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{B0043230-49CF-4E90-BC00-538200B50BC8}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{B0043230-49CF-4E90-BC00-538200B50BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>佐藤誠</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1E5FEC4B-752C-4215-97F9-BF3A09675F43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>佐藤誠:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+付録とモジュールが１：１に整理されたものに「完了」を記述</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>付録1．</t>
   </si>
@@ -294,10 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>schedules.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Main.py</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -319,6 +351,81 @@
   </si>
   <si>
     <t>apdx10_oblique_incidence_characteristics.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付録34．</t>
+    <rPh sb="0" eb="2">
+      <t>フロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界条件が同じ部位の集約</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>building_part_summarize.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>local_vent_schedule.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>internal_heat_schedule.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lighting_schedules.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resident_schedules.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付録番号</t>
+    <rPh sb="0" eb="2">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>題目</t>
+    <rPh sb="0" eb="2">
+      <t>ダイモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤整理完了</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -326,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -338,6 +445,21 @@
       <sz val="6"/>
       <name val="メイリオ"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -378,12 +500,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,386 +823,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A5C63-D5CC-47BF-B651-E22B3FDA5111}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A5C63-D5CC-47BF-B651-E22B3FDA5111}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A11" s="1" t="s">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A12" s="1" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A15" s="1" t="s">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A20" s="1" t="s">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A24" s="1" t="s">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
+++ b/heatload_calc/Python/付録とPythonソースファイルの関連表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\kiseisokue7\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F5EB0-DD4D-4B06-A2AD-EA670248B455}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D762CC-6DC7-49AD-9C7F-88C0453E5990}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{B0043230-49CF-4E90-BC00-538200B50BC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0043230-49CF-4E90-BC00-538200B50BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>付録1．</t>
   </si>
@@ -426,6 +426,17 @@
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blowing_condition_rac.py</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -826,16 +837,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A5C63-D5CC-47BF-B651-E22B3FDA5111}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -974,7 +985,9 @@
       <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
@@ -986,7 +999,9 @@
       <c r="C11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
@@ -998,7 +1013,9 @@
       <c r="C12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
@@ -1010,7 +1027,9 @@
       <c r="C13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
@@ -1036,7 +1055,9 @@
       <c r="C15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
@@ -1048,7 +1069,9 @@
       <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
@@ -1058,9 +1081,11 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
@@ -1072,7 +1097,9 @@
       <c r="C18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
@@ -1096,7 +1123,9 @@
       <c r="C20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
@@ -1144,7 +1173,9 @@
       <c r="C24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
